--- a/medicine/Enfance/Joan_Walsh_Anglund/Joan_Walsh_Anglund.xlsx
+++ b/medicine/Enfance/Joan_Walsh_Anglund/Joan_Walsh_Anglund.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joan Walsh Anglund (3 janvier 1926 - 9 mars 2021) est une poètesse américaine, autrice et illustratrice de livres pour enfants. En 2014, elle avait vendu plus de 45 millions de livres dans le monde[1],[2].
-En 2015, les services postaux des États-Unis émettent un timbre pour commémorer l'auteure et poète américaine Maya Angelou. Il y est inscrit une citation de Joan Walsh Anglund: "A bird doesn’t sing because it has an answer, it sings because it has a song" ( "Un oiseau ne chante pas parce qu'il a une réponse, il chante parce qu'il a une chanson") bien que le timbre semble l'attribuer à Angelou[3]. La citation est tirée du livre de poèmes d'Anglund A Cup of Sun (1967).  Le président Obama a également attribué à tort la sentence à Angelou en 2013[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joan Walsh Anglund (3 janvier 1926 - 9 mars 2021) est une poètesse américaine, autrice et illustratrice de livres pour enfants. En 2014, elle avait vendu plus de 45 millions de livres dans le monde,.
+En 2015, les services postaux des États-Unis émettent un timbre pour commémorer l'auteure et poète américaine Maya Angelou. Il y est inscrit une citation de Joan Walsh Anglund: "A bird doesn’t sing because it has an answer, it sings because it has a song" ( "Un oiseau ne chante pas parce qu'il a une réponse, il chante parce qu'il a une chanson") bien que le timbre semble l'attribuer à Angelou. La citation est tirée du livre de poèmes d'Anglund A Cup of Sun (1967).  Le président Obama a également attribué à tort la sentence à Angelou en 2013.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>The Brave Cowboy, 1959
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Brave Cowboy, 1959
 Look out the Window, 1959
 A Friend Is Someone Who Likes You, 1958 - traduit sous le titre Un ami, c'est quelqu'un qui t'aime
 Love Is a Special Way of Feeling, 1960
@@ -523,7 +537,7 @@
 Childhood is a time of innocence, 1964
 Babies Are a Bit of Heaven, 2002
 Love Is the Best Teacher, 2004
-Faith Is a Flower, 2006 [5]</t>
+Faith Is a Flower, 2006 </t>
         </is>
       </c>
     </row>
